--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/417dfae0e5d41085/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76543E6-B5E0-4A9C-961A-C0300A9F3D2D}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3C795E-2ED6-4901-953B-48679F016BB3}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="2010" windowWidth="24150" windowHeight="16935" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="6900" yWindow="855" windowWidth="29115" windowHeight="18225" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -75,6 +75,213 @@
   </si>
   <si>
     <t>clog up</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>znosić, tolerować</t>
+  </si>
+  <si>
+    <t>TŁUMACZENIE</t>
+  </si>
+  <si>
+    <t>break down</t>
+  </si>
+  <si>
+    <t>załamać się psychnicznie, zepsuć się</t>
+  </si>
+  <si>
+    <t>fall out</t>
+  </si>
+  <si>
+    <t>kłócić się</t>
+  </si>
+  <si>
+    <t>pass up</t>
+  </si>
+  <si>
+    <t>pominąć, odpuścić sobie</t>
+  </si>
+  <si>
+    <t>take it out on</t>
+  </si>
+  <si>
+    <t>wyżywać się na kimś</t>
+  </si>
+  <si>
+    <t>get down to</t>
+  </si>
+  <si>
+    <t>zabrać się do czegoś</t>
+  </si>
+  <si>
+    <t>fall behind with</t>
+  </si>
+  <si>
+    <t>zostawać w tyle, mieć zaległości</t>
+  </si>
+  <si>
+    <t>turn down</t>
+  </si>
+  <si>
+    <t>odrzucić</t>
+  </si>
+  <si>
+    <t>wręczyć</t>
+  </si>
+  <si>
+    <t>hand in</t>
+  </si>
+  <si>
+    <t>get away</t>
+  </si>
+  <si>
+    <t>uciekać</t>
+  </si>
+  <si>
+    <t>get by</t>
+  </si>
+  <si>
+    <t>przetrwać</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>pogodzić się</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>wychowywać dzieci</t>
+  </si>
+  <si>
+    <t>give up</t>
+  </si>
+  <si>
+    <t>zaprzestać coś robić, rzucić robienie czegoś</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>przekładać zrobienie czegoś</t>
+  </si>
+  <si>
+    <t>put aside</t>
+  </si>
+  <si>
+    <t>oszczędzać</t>
+  </si>
+  <si>
+    <t>wind down</t>
+  </si>
+  <si>
+    <t>relaksować</t>
+  </si>
+  <si>
+    <t>run out</t>
+  </si>
+  <si>
+    <t>skończyć się</t>
+  </si>
+  <si>
+    <t>set up</t>
+  </si>
+  <si>
+    <t>założyć</t>
+  </si>
+  <si>
+    <t>hang out with</t>
+  </si>
+  <si>
+    <t>spędzać czas z</t>
+  </si>
+  <si>
+    <t>look up to</t>
+  </si>
+  <si>
+    <t>podziwiać</t>
+  </si>
+  <si>
+    <t>pop in</t>
+  </si>
+  <si>
+    <t>wpaść na chwilę, odwiedzić</t>
+  </si>
+  <si>
+    <t>keep away from</t>
+  </si>
+  <si>
+    <t>trzymać się daleko od</t>
+  </si>
+  <si>
+    <t>wear out</t>
+  </si>
+  <si>
+    <t>worn-out</t>
+  </si>
+  <si>
+    <t>zmęczony</t>
+  </si>
+  <si>
+    <t>męczyć się</t>
+  </si>
+  <si>
+    <t>jump at</t>
+  </si>
+  <si>
+    <t>skorzystać natychmiast z jakiejś propozycji, oferty</t>
+  </si>
+  <si>
+    <t>take up (a hobby)</t>
+  </si>
+  <si>
+    <t>zacząć, podjąć</t>
+  </si>
+  <si>
+    <t>stress out</t>
+  </si>
+  <si>
+    <t>stresować się</t>
+  </si>
+  <si>
+    <t>zmniejszyć się, zwolnić</t>
+  </si>
+  <si>
+    <t>powracać do zdrowia</t>
+  </si>
+  <si>
+    <t>become ill</t>
+  </si>
+  <si>
+    <t>mdleć</t>
+  </si>
+  <si>
+    <t>wymiotować</t>
+  </si>
+  <si>
+    <t>ustępować, przestaje działać</t>
+  </si>
+  <si>
+    <t>dochodzić do siebie</t>
+  </si>
+  <si>
+    <t>zaprzestać, kończyć, eliminować</t>
+  </si>
+  <si>
+    <t>odejść, umrzeć</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>spuchnąć, opuchnąć</t>
+  </si>
+  <si>
+    <t>zatkać się</t>
   </si>
 </sst>
 </file>
@@ -111,16 +318,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,6 +354,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B41" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B41" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,83 +684,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC3D10-7052-46DC-B01A-E172A5E7EEB1}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D3C795E-2ED6-4901-953B-48679F016BB3}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B9C3DD-E485-475D-886B-35A6657DA0E3}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="855" windowWidth="29115" windowHeight="18225" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="6375" yWindow="450" windowWidth="30180" windowHeight="18225" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>zatkać się</t>
+  </si>
+  <si>
+    <t>live up to</t>
+  </si>
+  <si>
+    <t>dorównać np.. Oczekiwaniom</t>
+  </si>
+  <si>
+    <t>look down on</t>
+  </si>
+  <si>
+    <t>patrzeć na kogoś z góry</t>
+  </si>
+  <si>
+    <t>take after</t>
+  </si>
+  <si>
+    <t>być podobnym do</t>
+  </si>
+  <si>
+    <t>grow apart</t>
+  </si>
+  <si>
+    <t>start to be different</t>
+  </si>
+  <si>
+    <t>get down</t>
+  </si>
+  <si>
+    <t>turn one's back on</t>
   </si>
 </sst>
 </file>
@@ -335,7 +365,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -357,11 +387,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B41" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B41" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B47" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B46">
+    <sortCondition ref="A1:A46"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -684,15 +717,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC3D10-7052-46DC-B01A-E172A5E7EEB1}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,324 +738,368 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5B9C3DD-E485-475D-886B-35A6657DA0E3}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0233A5-D786-4AD9-8A92-CE6F14A57EBF}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="450" windowWidth="30180" windowHeight="18225" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="49485" yWindow="405" windowWidth="22590" windowHeight="19725" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -312,6 +312,177 @@
   </si>
   <si>
     <t>turn one's back on</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>pojąć, pojmować, chwycić</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>znajomy</t>
+  </si>
+  <si>
+    <t>health resort</t>
+  </si>
+  <si>
+    <t>sanatorium</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>urlop</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>kichać</t>
+  </si>
+  <si>
+    <t>cocky</t>
+  </si>
+  <si>
+    <t>arogancki</t>
+  </si>
+  <si>
+    <t>ease-going</t>
+  </si>
+  <si>
+    <t>absent-minded</t>
+  </si>
+  <si>
+    <t>moody</t>
+  </si>
+  <si>
+    <t>jealous</t>
+  </si>
+  <si>
+    <t>conceited</t>
+  </si>
+  <si>
+    <t>złośliwy</t>
+  </si>
+  <si>
+    <t>nosy</t>
+  </si>
+  <si>
+    <t>wścibski</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>sly</t>
+  </si>
+  <si>
+    <t>sloppy</t>
+  </si>
+  <si>
+    <t>cwany, chytry</t>
+  </si>
+  <si>
+    <t>compassionate</t>
+  </si>
+  <si>
+    <t>caring</t>
+  </si>
+  <si>
+    <t>witty</t>
+  </si>
+  <si>
+    <t>bystry</t>
+  </si>
+  <si>
+    <t>aloof</t>
+  </si>
+  <si>
+    <t>powściągliwy</t>
+  </si>
+  <si>
+    <t>self-assured</t>
+  </si>
+  <si>
+    <t>pewny siebie</t>
+  </si>
+  <si>
+    <t>spiteful</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>płytki</t>
+  </si>
+  <si>
+    <t>judgemental</t>
+  </si>
+  <si>
+    <t>scatty</t>
+  </si>
+  <si>
+    <t>forgetfull</t>
+  </si>
+  <si>
+    <t>impudent</t>
+  </si>
+  <si>
+    <t>bezczelny</t>
+  </si>
+  <si>
+    <t>quarrelsome</t>
+  </si>
+  <si>
+    <t>considerate</t>
+  </si>
+  <si>
+    <t>self-righteous</t>
+  </si>
+  <si>
+    <t>gullible</t>
+  </si>
+  <si>
+    <t>łatwowierny</t>
+  </si>
+  <si>
+    <t>reckless</t>
+  </si>
+  <si>
+    <t>nieostrożny</t>
+  </si>
+  <si>
+    <t>busybody</t>
+  </si>
+  <si>
+    <t>pooper</t>
+  </si>
+  <si>
+    <t>psujący zabawę wszystkim</t>
+  </si>
+  <si>
+    <t>the life and the soul of the party</t>
+  </si>
+  <si>
+    <t>dark hourse</t>
+  </si>
+  <si>
+    <t>zagadkowa, tajemnicza postać</t>
+  </si>
+  <si>
+    <t>whinger</t>
+  </si>
+  <si>
+    <t>zrzęda</t>
+  </si>
+  <si>
+    <t>smutas</t>
+  </si>
+  <si>
+    <t>wet blanket</t>
   </si>
 </sst>
 </file>
@@ -387,14 +558,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B47" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B46">
-    <sortCondition ref="A1:A46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B83" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B83" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
+    <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC3D10-7052-46DC-B01A-E172A5E7EEB1}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,367 +910,629 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0233A5-D786-4AD9-8A92-CE6F14A57EBF}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE66EA96-296E-41AF-A667-B4984BE3308B}"/>
   <bookViews>
-    <workbookView xWindow="49485" yWindow="405" windowWidth="22590" windowHeight="19725" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="3270" yWindow="705" windowWidth="33930" windowHeight="20055" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -483,6 +484,120 @@
   </si>
   <si>
     <t>wet blanket</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>whip up</t>
+  </si>
+  <si>
+    <t>dish up</t>
+  </si>
+  <si>
+    <t>pick at</t>
+  </si>
+  <si>
+    <t>gobble up</t>
+  </si>
+  <si>
+    <t>pig out</t>
+  </si>
+  <si>
+    <t>wolf down</t>
+  </si>
+  <si>
+    <t>nibble on</t>
+  </si>
+  <si>
+    <t>force down</t>
+  </si>
+  <si>
+    <t>top up</t>
+  </si>
+  <si>
+    <t>eat up</t>
+  </si>
+  <si>
+    <t>heat up</t>
+  </si>
+  <si>
+    <t>go off</t>
+  </si>
+  <si>
+    <t>picky eater</t>
+  </si>
+  <si>
+    <t>pull down</t>
+  </si>
+  <si>
+    <t>fall through</t>
+  </si>
+  <si>
+    <t>fall apart</t>
+  </si>
+  <si>
+    <t>pimp up</t>
+  </si>
+  <si>
+    <t>beef up</t>
+  </si>
+  <si>
+    <t>act up</t>
+  </si>
+  <si>
+    <t>get through</t>
+  </si>
+  <si>
+    <t>brush up on</t>
+  </si>
+  <si>
+    <t>let down</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <t>stand by</t>
+  </si>
+  <si>
+    <t>get on</t>
+  </si>
+  <si>
+    <t>go up</t>
+  </si>
+  <si>
+    <t>juice up</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>give birth to a child</t>
+  </si>
+  <si>
+    <t>pricks of conscience</t>
+  </si>
+  <si>
+    <t>give vent to</t>
+  </si>
+  <si>
+    <t>fortune teller</t>
+  </si>
+  <si>
+    <t>do you happen to have</t>
+  </si>
+  <si>
+    <t>work overtime</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>seasoning</t>
+  </si>
+  <si>
+    <t>on the mend</t>
   </si>
 </sst>
 </file>
@@ -531,7 +646,19 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -558,14 +685,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B83" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B76" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15B52067-1C95-40FC-A3D0-973CB5EC5444}" name="Tabela13" displayName="Tabela13" ref="A1:B83" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B83" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
     <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C8AF3475-CD19-43F4-B20A-14ED0CD22EF1}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7527E952-4403-4515-8899-1D903CE06A83}" name="TŁUMACZENIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -888,9 +1029,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC3D10-7052-46DC-B01A-E172A5E7EEB1}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D9A46-B3CE-4BC9-97EA-DC3EF41851A9}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE66EA96-296E-41AF-A667-B4984BE3308B}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A402D62-623F-4F65-817F-99E18A90EA2A}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="705" windowWidth="33930" windowHeight="20055" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="2835" yWindow="435" windowWidth="33930" windowHeight="20055" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Backup" sheetId="2" r:id="rId2"/>
+    <sheet name="2025-05-15" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -598,6 +599,108 @@
   </si>
   <si>
     <t>on the mend</t>
+  </si>
+  <si>
+    <t>sort out</t>
+  </si>
+  <si>
+    <t>solve, take care of</t>
+  </si>
+  <si>
+    <t>attend to</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>look into</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>look up</t>
+  </si>
+  <si>
+    <t>check in documents or on the Internet</t>
+  </si>
+  <si>
+    <t>carry out</t>
+  </si>
+  <si>
+    <t>perform (duties)</t>
+  </si>
+  <si>
+    <t>lay off</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>take control</t>
+  </si>
+  <si>
+    <t>start working</t>
+  </si>
+  <si>
+    <t>slack off</t>
+  </si>
+  <si>
+    <t>laze around</t>
+  </si>
+  <si>
+    <t>call of</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>postpone</t>
+  </si>
+  <si>
+    <t>draw up</t>
+  </si>
+  <si>
+    <t>prepare a document</t>
+  </si>
+  <si>
+    <t>run it by sb</t>
+  </si>
+  <si>
+    <t>tell someone about something to check if it is a good idea</t>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>(an idea, story) invent</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>copy in</t>
+  </si>
+  <si>
+    <t>send a copy on an email to someone</t>
+  </si>
+  <si>
+    <t>fill in for someone</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>pencil in</t>
+  </si>
+  <si>
+    <t>make preliminary arrangement</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -646,7 +749,19 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -685,28 +800,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B76" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B76" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
     <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D4B1A09C-08E8-4FE2-9009-229D395B9231}" name="WORDS / PHRASE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{07E10E91-012F-4487-90A8-4D96A9053BA5}" name="TŁUMACZENIE" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15B52067-1C95-40FC-A3D0-973CB5EC5444}" name="Tabela13" displayName="Tabela13" ref="A1:B83" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15B52067-1C95-40FC-A3D0-973CB5EC5444}" name="Tabela13" displayName="Tabela13" ref="A1:B83" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B83" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
     <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8AF3475-CD19-43F4-B20A-14ED0CD22EF1}" name="WORDS / PHRASE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7527E952-4403-4515-8899-1D903CE06A83}" name="TŁUMACZENIE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C8AF3475-CD19-43F4-B20A-14ED0CD22EF1}" name="WORDS / PHRASE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7527E952-4403-4515-8899-1D903CE06A83}" name="TŁUMACZENIE" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{44BE9B93-3878-457B-99B6-BDCFCEA21779}" name="Tabela14" displayName="Tabela14" ref="A1:B76" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{97362094-11F3-4E8A-B27A-D8821EB861CD}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{92891BAD-C70A-4100-8C0B-E70F520386B8}" name="TŁUMACZENIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,13 +1161,13 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,312 +1186,388 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,4 +2296,410 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC3B2C-CEEC-486A-A897-067104724A4F}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A402D62-623F-4F65-817F-99E18A90EA2A}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4826BFB3-77A9-47EF-870E-886C39F0C157}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="435" windowWidth="33930" windowHeight="20055" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="5640" yWindow="735" windowWidth="31485" windowHeight="17580" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Backup" sheetId="2" r:id="rId2"/>
-    <sheet name="2025-05-15" sheetId="4" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId1"/>
+    <sheet name="Backup1" sheetId="1" r:id="rId2"/>
+    <sheet name="Backup" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -800,6 +800,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{44BE9B93-3878-457B-99B6-BDCFCEA21779}" name="Tabela14" displayName="Tabela14" ref="A1:B76" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{97362094-11F3-4E8A-B27A-D8821EB861CD}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{92891BAD-C70A-4100-8C0B-E70F520386B8}" name="TŁUMACZENIE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}" name="Tabela1" displayName="Tabela1" ref="A1:B76" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
@@ -813,7 +827,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15B52067-1C95-40FC-A3D0-973CB5EC5444}" name="Tabela13" displayName="Tabela13" ref="A1:B83" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B83" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B83">
@@ -822,20 +836,6 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C8AF3475-CD19-43F4-B20A-14ED0CD22EF1}" name="WORDS / PHRASE" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7527E952-4403-4515-8899-1D903CE06A83}" name="TŁUMACZENIE" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{44BE9B93-3878-457B-99B6-BDCFCEA21779}" name="Tabela14" displayName="Tabela14" ref="A1:B76" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
-    <sortCondition ref="A1:A76"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{97362094-11F3-4E8A-B27A-D8821EB861CD}" name="WORDS / PHRASE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{92891BAD-C70A-4100-8C0B-E70F520386B8}" name="TŁUMACZENIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1157,10 +1157,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC3B2C-CEEC-486A-A897-067104724A4F}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EC3D10-7052-46DC-B01A-E172A5E7EEB1}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -1642,11 +2048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D9A46-B3CE-4BC9-97EA-DC3EF41851A9}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2296,410 +2702,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC3B2C-CEEC-486A-A897-067104724A4F}">
-  <dimension ref="A1:B76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Daily English Notification.xlsx
+++ b/Daily English Notification.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mikadamk-my.sharepoint.com/personal/m_marek_mikada_pl/Documents/Dokumenty/GitHub/daily_english_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4826BFB3-77A9-47EF-870E-886C39F0C157}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{2F71EC3E-8D53-4B4B-BEF5-3C160EB62383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFF30A39-7673-47C1-BA89-A60D98CF44F5}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="735" windowWidth="31485" windowHeight="17580" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
+    <workbookView xWindow="41835" yWindow="1725" windowWidth="31305" windowHeight="17805" xr2:uid="{F8E21B6F-94DD-47EA-9C62-BD2C5517C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="4" r:id="rId1"/>
-    <sheet name="Backup1" sheetId="1" r:id="rId2"/>
-    <sheet name="Backup" sheetId="2" r:id="rId3"/>
+    <sheet name="Set1" sheetId="1" r:id="rId2"/>
+    <sheet name="Set2" sheetId="2" r:id="rId3"/>
+    <sheet name="Set3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="259">
   <si>
     <t>WORDS / PHRASE</t>
   </si>
@@ -701,6 +702,120 @@
   </si>
   <si>
     <t>reject</t>
+  </si>
+  <si>
+    <t>impressed in</t>
+  </si>
+  <si>
+    <t>familiar with</t>
+  </si>
+  <si>
+    <t>satisfied with</t>
+  </si>
+  <si>
+    <t>busy with</t>
+  </si>
+  <si>
+    <t>popular with</t>
+  </si>
+  <si>
+    <t>solution to</t>
+  </si>
+  <si>
+    <t>pay attantion to</t>
+  </si>
+  <si>
+    <t>related to</t>
+  </si>
+  <si>
+    <t>attitude to</t>
+  </si>
+  <si>
+    <t>harmful to</t>
+  </si>
+  <si>
+    <t>insists on</t>
+  </si>
+  <si>
+    <t>focus on</t>
+  </si>
+  <si>
+    <t>complains about</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>keen on</t>
+  </si>
+  <si>
+    <t>zapalony do</t>
+  </si>
+  <si>
+    <t>good at</t>
+  </si>
+  <si>
+    <t>arrived at</t>
+  </si>
+  <si>
+    <t>reason for</t>
+  </si>
+  <si>
+    <t>famous for</t>
+  </si>
+  <si>
+    <t>graduated from</t>
+  </si>
+  <si>
+    <t>prevent from</t>
+  </si>
+  <si>
+    <t>recover from</t>
+  </si>
+  <si>
+    <t>suffers from</t>
+  </si>
+  <si>
+    <t>absent from</t>
+  </si>
+  <si>
+    <t>benefit from</t>
+  </si>
+  <si>
+    <t>proud of</t>
+  </si>
+  <si>
+    <t>aware of</t>
+  </si>
+  <si>
+    <t>jealous of</t>
+  </si>
+  <si>
+    <t>guilty of</t>
+  </si>
+  <si>
+    <t>tired of</t>
+  </si>
+  <si>
+    <t>accused of</t>
+  </si>
+  <si>
+    <t>incapable of</t>
+  </si>
+  <si>
+    <t>disapprove of</t>
+  </si>
+  <si>
+    <t>suspect of</t>
+  </si>
+  <si>
+    <t>interested in</t>
+  </si>
+  <si>
+    <t>involved in</t>
+  </si>
+  <si>
+    <t>succeed in</t>
   </si>
 </sst>
 </file>
@@ -749,7 +864,19 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -800,14 +927,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{44BE9B93-3878-457B-99B6-BDCFCEA21779}" name="Tabela14" displayName="Tabela14" ref="A1:B76" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{44BE9B93-3878-457B-99B6-BDCFCEA21779}" name="Tabela14" displayName="Tabela14" ref="A1:B76" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
     <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{97362094-11F3-4E8A-B27A-D8821EB861CD}" name="WORDS / PHRASE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{92891BAD-C70A-4100-8C0B-E70F520386B8}" name="TŁUMACZENIE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{97362094-11F3-4E8A-B27A-D8821EB861CD}" name="WORDS / PHRASE" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{92891BAD-C70A-4100-8C0B-E70F520386B8}" name="TŁUMACZENIE" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,6 +963,20 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C8AF3475-CD19-43F4-B20A-14ED0CD22EF1}" name="WORDS / PHRASE" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{7527E952-4403-4515-8899-1D903CE06A83}" name="TŁUMACZENIE" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8E5C9388-D6CB-4F14-860C-7EB65229B664}" name="Tabela145" displayName="Tabela145" ref="A1:B76" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B76" xr:uid="{0EF679C8-60DE-4C8C-8249-0F9312AF29DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{210C47A7-1485-44E5-B3A2-62D2542FE1ED}" name="WORDS / PHRASE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F36123CD-DDC3-4032-906F-F2F736510DA6}" name="TŁUMACZENIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,7 +1302,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,226 +1321,226 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>212</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D9A46-B3CE-4BC9-97EA-DC3EF41851A9}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2702,4 +2843,410 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6183E5E-4C6C-4592-8886-E73EE52218ED}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>